--- a/biology/Botanique/Amanoa/Amanoa.xlsx
+++ b/biology/Botanique/Amanoa/Amanoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amanoa est un genre de plantes à fleurs de la famille des Phyllanthaceae, et comptant entre 16 et 20 espèces'. Ce sont des arbres répandus dans l'est de l'Amérique centrale, le nord de l'Amérique du Sud et l'Afrique occidentale tropicale[2]. 
-Le nom Amanoa est inspiré de l'ancien nom vernaculaire Galibi Amanoua de l'espèce type Amanoa guianensis Aubl. en Guyane[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanoa est un genre de plantes à fleurs de la famille des Phyllanthaceae, et comptant entre 16 et 20 espèces'. Ce sont des arbres répandus dans l'est de l'Amérique centrale, le nord de l'Amérique du Sud et l'Afrique occidentale tropicale. 
+Le nom Amanoa est inspiré de l'ancien nom vernaculaire Galibi Amanoua de l'espèce type Amanoa guianensis Aubl. en Guyane.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanoa regroupe des arbres ou arbustes monoïques ou dioïques, sans latex. 
 Les feuilles sont simples, alternes, distiques, persistantes, coriaces, glabres.
@@ -530,7 +544,7 @@
 Les graines sont globuleuses à subcylindriques, dépourvus de caroncule.
 Le testa est chartacé à pierreux.
 L'endosperme est présent.
-L'embryon est droit, les cotylédons grands, oblongs, la radicule courte, supérieure[2].
+L'embryon est droit, les cotylédons grands, oblongs, la radicule courte, supérieure.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « AMANOA. (Tabula 101.)
 CAL. Perianthium monophyllum, minimum, quinquepartitum ; laciniis ovatis, ſubrotundis, concavis.
 COR. nulla.
@@ -597,9 +613,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (04 avril 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (04 avril 2022) :
 Amanoa almerindae Leal Little
 Amanoa anomala Little Planch.
 Amanoa bracteosa Planch. Krug &amp; Urb.
@@ -616,7 +634,7 @@
 Amanoa sinuosa W.J.Hayden Jabl.
 Amanoa steyermarkii Jabl. Müll.Arg.
 Amanoa strobilacea Müll.Arg.
-Selon GBIF       (04 avril 2022)[1] :
+Selon GBIF       (04 avril 2022) :
 Amanoa almerindae Leal Little
 Amanoa anomala Little Planch.
 Amanoa bracteosa Planch. Krug &amp; Urb.
@@ -637,7 +655,7 @@
 Amanoa steyermarkii Jabl. Müll.Arg.
 Amanoa strobilacea Müll.Arg. Huber
 Amanoa yapurensis Huber
-Selon Tropicos                                           (26 mai 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Amanoa acuminata Thwaites, 1864
 Amanoa almerindae Leal, 1951
 Amanoa anomala Little, 1969
